--- a/data_input_files_scripts/evaluation_for_cse101_mid_q3.xlsx
+++ b/data_input_files_scripts/evaluation_for_cse101_mid_q3.xlsx
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10001</v>
+        <v>120001</v>
       </c>
       <c r="C3">
         <v>1001</v>
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10002</v>
+        <v>120002</v>
       </c>
       <c r="C4">
         <v>1002</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10003</v>
+        <v>120003</v>
       </c>
       <c r="C5">
         <v>1003</v>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10004</v>
+        <v>120004</v>
       </c>
       <c r="C6">
         <v>1004</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10005</v>
+        <v>120005</v>
       </c>
       <c r="C7">
         <v>1005</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10006</v>
+        <v>120006</v>
       </c>
       <c r="C8">
         <v>1006</v>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10007</v>
+        <v>120007</v>
       </c>
       <c r="C9">
         <v>1007</v>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10008</v>
+        <v>120008</v>
       </c>
       <c r="C10">
         <v>1008</v>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10009</v>
+        <v>120009</v>
       </c>
       <c r="C11">
         <v>1009</v>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10010</v>
+        <v>120010</v>
       </c>
       <c r="C12">
         <v>1010</v>
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10011</v>
+        <v>120011</v>
       </c>
       <c r="C13">
         <v>1011</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10012</v>
+        <v>120012</v>
       </c>
       <c r="C14">
         <v>1012</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10013</v>
+        <v>120013</v>
       </c>
       <c r="C15">
         <v>1013</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10014</v>
+        <v>120014</v>
       </c>
       <c r="C16">
         <v>1014</v>
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10015</v>
+        <v>120015</v>
       </c>
       <c r="C17">
         <v>1015</v>
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10016</v>
+        <v>120016</v>
       </c>
       <c r="C18">
         <v>1016</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10017</v>
+        <v>120017</v>
       </c>
       <c r="C19">
         <v>1017</v>
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10018</v>
+        <v>120018</v>
       </c>
       <c r="C20">
         <v>1018</v>
@@ -734,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10019</v>
+        <v>120019</v>
       </c>
       <c r="C21">
         <v>1019</v>
@@ -751,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10020</v>
+        <v>120020</v>
       </c>
       <c r="C22">
         <v>1020</v>
@@ -768,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10021</v>
+        <v>120021</v>
       </c>
       <c r="C23">
         <v>1021</v>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10022</v>
+        <v>120022</v>
       </c>
       <c r="C24">
         <v>1022</v>
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10023</v>
+        <v>120023</v>
       </c>
       <c r="C25">
         <v>1023</v>
@@ -819,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10024</v>
+        <v>120024</v>
       </c>
       <c r="C26">
         <v>1024</v>
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10025</v>
+        <v>120025</v>
       </c>
       <c r="C27">
         <v>1025</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10026</v>
+        <v>120026</v>
       </c>
       <c r="C28">
         <v>1026</v>
@@ -870,7 +870,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10027</v>
+        <v>120027</v>
       </c>
       <c r="C29">
         <v>1027</v>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10028</v>
+        <v>120028</v>
       </c>
       <c r="C30">
         <v>1028</v>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10029</v>
+        <v>120029</v>
       </c>
       <c r="C31">
         <v>1029</v>
@@ -921,7 +921,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10030</v>
+        <v>120030</v>
       </c>
       <c r="C32">
         <v>1030</v>
@@ -938,7 +938,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10031</v>
+        <v>120031</v>
       </c>
       <c r="C33">
         <v>1031</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10032</v>
+        <v>120032</v>
       </c>
       <c r="C34">
         <v>1032</v>
@@ -972,7 +972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10033</v>
+        <v>120033</v>
       </c>
       <c r="C35">
         <v>1033</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10034</v>
+        <v>120034</v>
       </c>
       <c r="C36">
         <v>1034</v>
@@ -1006,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10035</v>
+        <v>120035</v>
       </c>
       <c r="C37">
         <v>1035</v>
@@ -1023,7 +1023,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10036</v>
+        <v>120036</v>
       </c>
       <c r="C38">
         <v>1036</v>
@@ -1040,7 +1040,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10037</v>
+        <v>120037</v>
       </c>
       <c r="C39">
         <v>1037</v>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10038</v>
+        <v>120038</v>
       </c>
       <c r="C40">
         <v>1038</v>
@@ -1074,7 +1074,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10039</v>
+        <v>120039</v>
       </c>
       <c r="C41">
         <v>1039</v>
@@ -1091,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10040</v>
+        <v>120040</v>
       </c>
       <c r="C42">
         <v>1040</v>
@@ -1108,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10041</v>
+        <v>120041</v>
       </c>
       <c r="C43">
         <v>1041</v>
@@ -1125,7 +1125,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10042</v>
+        <v>120042</v>
       </c>
       <c r="C44">
         <v>1042</v>
@@ -1142,7 +1142,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10043</v>
+        <v>120043</v>
       </c>
       <c r="C45">
         <v>1043</v>
@@ -1159,7 +1159,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10044</v>
+        <v>120044</v>
       </c>
       <c r="C46">
         <v>1044</v>
@@ -1176,7 +1176,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10045</v>
+        <v>120045</v>
       </c>
       <c r="C47">
         <v>1045</v>
@@ -1193,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10046</v>
+        <v>120046</v>
       </c>
       <c r="C48">
         <v>1046</v>
@@ -1210,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10047</v>
+        <v>120047</v>
       </c>
       <c r="C49">
         <v>1047</v>
@@ -1227,7 +1227,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10048</v>
+        <v>120048</v>
       </c>
       <c r="C50">
         <v>1048</v>
@@ -1244,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10049</v>
+        <v>120049</v>
       </c>
       <c r="C51">
         <v>1049</v>
@@ -1261,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10050</v>
+        <v>120050</v>
       </c>
       <c r="C52">
         <v>1050</v>
@@ -1278,7 +1278,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10051</v>
+        <v>120051</v>
       </c>
       <c r="C53">
         <v>1051</v>
@@ -1295,7 +1295,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10052</v>
+        <v>120052</v>
       </c>
       <c r="C54">
         <v>1052</v>
@@ -1312,7 +1312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10053</v>
+        <v>120053</v>
       </c>
       <c r="C55">
         <v>1053</v>
@@ -1329,7 +1329,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10054</v>
+        <v>120054</v>
       </c>
       <c r="C56">
         <v>1054</v>
@@ -1346,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10055</v>
+        <v>120055</v>
       </c>
       <c r="C57">
         <v>1055</v>
@@ -1363,7 +1363,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10056</v>
+        <v>120056</v>
       </c>
       <c r="C58">
         <v>1056</v>
@@ -1380,7 +1380,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10057</v>
+        <v>120057</v>
       </c>
       <c r="C59">
         <v>1057</v>
@@ -1397,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10058</v>
+        <v>120058</v>
       </c>
       <c r="C60">
         <v>1058</v>
@@ -1414,7 +1414,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10059</v>
+        <v>120059</v>
       </c>
       <c r="C61">
         <v>1059</v>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10060</v>
+        <v>120060</v>
       </c>
       <c r="C62">
         <v>1060</v>
@@ -1448,7 +1448,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10061</v>
+        <v>120061</v>
       </c>
       <c r="C63">
         <v>1061</v>
@@ -1465,7 +1465,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10062</v>
+        <v>120062</v>
       </c>
       <c r="C64">
         <v>1062</v>
@@ -1482,7 +1482,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10063</v>
+        <v>120063</v>
       </c>
       <c r="C65">
         <v>1063</v>
@@ -1499,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10064</v>
+        <v>120064</v>
       </c>
       <c r="C66">
         <v>1064</v>
@@ -1516,7 +1516,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10065</v>
+        <v>120065</v>
       </c>
       <c r="C67">
         <v>1065</v>
@@ -1533,7 +1533,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10066</v>
+        <v>120066</v>
       </c>
       <c r="C68">
         <v>1066</v>
@@ -1550,7 +1550,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10067</v>
+        <v>120067</v>
       </c>
       <c r="C69">
         <v>1067</v>
@@ -1567,7 +1567,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10068</v>
+        <v>120068</v>
       </c>
       <c r="C70">
         <v>1068</v>
@@ -1584,7 +1584,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10069</v>
+        <v>120069</v>
       </c>
       <c r="C71">
         <v>1069</v>
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10070</v>
+        <v>120070</v>
       </c>
       <c r="C72">
         <v>1070</v>
@@ -1618,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10071</v>
+        <v>120071</v>
       </c>
       <c r="C73">
         <v>1071</v>
@@ -1635,7 +1635,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10072</v>
+        <v>120072</v>
       </c>
       <c r="C74">
         <v>1072</v>
@@ -1652,7 +1652,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10073</v>
+        <v>120073</v>
       </c>
       <c r="C75">
         <v>1073</v>
@@ -1669,7 +1669,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10074</v>
+        <v>120074</v>
       </c>
       <c r="C76">
         <v>1074</v>
@@ -1686,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10075</v>
+        <v>120075</v>
       </c>
       <c r="C77">
         <v>1075</v>
@@ -1703,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10076</v>
+        <v>120076</v>
       </c>
       <c r="C78">
         <v>1076</v>
@@ -1720,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10077</v>
+        <v>120077</v>
       </c>
       <c r="C79">
         <v>1077</v>
@@ -1737,7 +1737,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10078</v>
+        <v>120078</v>
       </c>
       <c r="C80">
         <v>1078</v>
@@ -1754,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10079</v>
+        <v>120079</v>
       </c>
       <c r="C81">
         <v>1079</v>
@@ -1771,7 +1771,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10080</v>
+        <v>120080</v>
       </c>
       <c r="C82">
         <v>1080</v>
@@ -1788,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10081</v>
+        <v>120081</v>
       </c>
       <c r="C83">
         <v>1081</v>
@@ -1805,7 +1805,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10082</v>
+        <v>120082</v>
       </c>
       <c r="C84">
         <v>1082</v>
@@ -1822,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>10083</v>
+        <v>120083</v>
       </c>
       <c r="C85">
         <v>1083</v>
@@ -1839,7 +1839,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10084</v>
+        <v>120084</v>
       </c>
       <c r="C86">
         <v>1084</v>
@@ -1856,7 +1856,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10085</v>
+        <v>120085</v>
       </c>
       <c r="C87">
         <v>1085</v>
@@ -1873,7 +1873,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>10086</v>
+        <v>120086</v>
       </c>
       <c r="C88">
         <v>1086</v>
@@ -1890,7 +1890,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10087</v>
+        <v>120087</v>
       </c>
       <c r="C89">
         <v>1087</v>
